--- a/dados/lista_comprovantes.xlsx
+++ b/dados/lista_comprovantes.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\arquivos para analise\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1DA1E3-774E-4F9B-96D8-337AE4BE4EB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE54FA2A-A35B-497B-8BD7-C0BB7C9FEE0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -363,162 +363,17 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1123417373</v>
+        <v>1116684761</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1129869639</v>
+        <v>1090319859</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1119460840</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1131023031</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1132265407</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1132270845</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1131044862</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1132328702</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1130579574</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1131587213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1130380866</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1130934071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1132234558</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1132242823</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1132170833</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1132126820</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1131560450</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1132039593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1130087608</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1132707141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1133147156</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1131428316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1132249861</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1131044862</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1130801426</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1132530007</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1132266888</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1132292924</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1134064696</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>1131560450</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>1134721925</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>1120006200</v>
+        <v>1086182819</v>
       </c>
     </row>
   </sheetData>
